--- a/AutoDistributeTools/测试表模板.xlsx
+++ b/AutoDistributeTools/测试表模板.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="工资表" sheetId="1" r:id="rId1"/>
-    <sheet name="绩效" sheetId="2" r:id="rId2"/>
+    <sheet name="绩效表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1657,8 +1657,8 @@
   <sheetPr/>
   <dimension ref="A1:AU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2275,7 +2275,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/AutoDistributeTools/测试表模板.xlsx
+++ b/AutoDistributeTools/测试表模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
   <si>
     <t>部门</t>
   </si>
@@ -317,157 +317,160 @@
     <t>408270653@qq.com</t>
   </si>
   <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>haha13</t>
+  </si>
+  <si>
+    <t>haha14</t>
+  </si>
+  <si>
+    <t>haha15</t>
+  </si>
+  <si>
+    <t>haha16</t>
+  </si>
+  <si>
+    <t>haha17</t>
+  </si>
+  <si>
+    <t>haha18</t>
+  </si>
+  <si>
+    <t>haha19</t>
+  </si>
+  <si>
+    <t>haha20</t>
+  </si>
+  <si>
+    <t>haha21</t>
+  </si>
+  <si>
+    <t>haha22</t>
+  </si>
+  <si>
+    <t>haha23</t>
+  </si>
+  <si>
+    <t>haha24</t>
+  </si>
+  <si>
+    <t>haha25</t>
+  </si>
+  <si>
+    <t>haha26</t>
+  </si>
+  <si>
+    <t>haha27</t>
+  </si>
+  <si>
+    <t>haha28</t>
+  </si>
+  <si>
+    <t>haha29</t>
+  </si>
+  <si>
+    <t>haha30</t>
+  </si>
+  <si>
+    <t>haha31</t>
+  </si>
+  <si>
+    <t>haha32</t>
+  </si>
+  <si>
+    <t>haha33</t>
+  </si>
+  <si>
+    <t>haha34</t>
+  </si>
+  <si>
+    <t>haha35</t>
+  </si>
+  <si>
+    <t>haha36</t>
+  </si>
+  <si>
+    <t>haha37</t>
+  </si>
+  <si>
+    <t>haha38</t>
+  </si>
+  <si>
+    <t>haha39</t>
+  </si>
+  <si>
+    <t>haha40</t>
+  </si>
+  <si>
+    <t>haha41</t>
+  </si>
+  <si>
+    <t>haha42</t>
+  </si>
+  <si>
+    <t>haha43</t>
+  </si>
+  <si>
+    <t>haha44</t>
+  </si>
+  <si>
+    <t>haha45</t>
+  </si>
+  <si>
+    <t>haha46</t>
+  </si>
+  <si>
+    <t>haha47</t>
+  </si>
+  <si>
+    <t>haha48</t>
+  </si>
+  <si>
+    <t>haha49</t>
+  </si>
+  <si>
+    <t>haha50</t>
+  </si>
+  <si>
+    <t>haha51</t>
+  </si>
+  <si>
+    <t>haha52</t>
+  </si>
+  <si>
+    <t>haha53</t>
+  </si>
+  <si>
+    <t>haha54</t>
+  </si>
+  <si>
+    <t>haha55</t>
+  </si>
+  <si>
+    <t>suzhaoheng2006@163.com</t>
+  </si>
+  <si>
+    <t>02月份绩效</t>
+  </si>
+  <si>
+    <t>考核基数</t>
+  </si>
+  <si>
+    <t>工作时间投入度</t>
+  </si>
+  <si>
+    <t>产出质量</t>
+  </si>
+  <si>
+    <t>按期交付能力</t>
+  </si>
+  <si>
+    <t>加权累计%</t>
+  </si>
+  <si>
     <t>李四</t>
-  </si>
-  <si>
-    <t>haha12</t>
-  </si>
-  <si>
-    <t>haha13</t>
-  </si>
-  <si>
-    <t>haha14</t>
-  </si>
-  <si>
-    <t>haha15</t>
-  </si>
-  <si>
-    <t>haha16</t>
-  </si>
-  <si>
-    <t>haha17</t>
-  </si>
-  <si>
-    <t>haha18</t>
-  </si>
-  <si>
-    <t>haha19</t>
-  </si>
-  <si>
-    <t>haha20</t>
-  </si>
-  <si>
-    <t>haha21</t>
-  </si>
-  <si>
-    <t>haha22</t>
-  </si>
-  <si>
-    <t>haha23</t>
-  </si>
-  <si>
-    <t>haha24</t>
-  </si>
-  <si>
-    <t>haha25</t>
-  </si>
-  <si>
-    <t>haha26</t>
-  </si>
-  <si>
-    <t>haha27</t>
-  </si>
-  <si>
-    <t>haha28</t>
-  </si>
-  <si>
-    <t>haha29</t>
-  </si>
-  <si>
-    <t>haha30</t>
-  </si>
-  <si>
-    <t>haha31</t>
-  </si>
-  <si>
-    <t>haha32</t>
-  </si>
-  <si>
-    <t>haha33</t>
-  </si>
-  <si>
-    <t>haha34</t>
-  </si>
-  <si>
-    <t>haha35</t>
-  </si>
-  <si>
-    <t>haha36</t>
-  </si>
-  <si>
-    <t>haha37</t>
-  </si>
-  <si>
-    <t>haha38</t>
-  </si>
-  <si>
-    <t>haha39</t>
-  </si>
-  <si>
-    <t>haha40</t>
-  </si>
-  <si>
-    <t>haha41</t>
-  </si>
-  <si>
-    <t>haha42</t>
-  </si>
-  <si>
-    <t>haha43</t>
-  </si>
-  <si>
-    <t>haha44</t>
-  </si>
-  <si>
-    <t>haha45</t>
-  </si>
-  <si>
-    <t>haha46</t>
-  </si>
-  <si>
-    <t>haha47</t>
-  </si>
-  <si>
-    <t>haha48</t>
-  </si>
-  <si>
-    <t>haha49</t>
-  </si>
-  <si>
-    <t>haha50</t>
-  </si>
-  <si>
-    <t>haha51</t>
-  </si>
-  <si>
-    <t>haha52</t>
-  </si>
-  <si>
-    <t>haha53</t>
-  </si>
-  <si>
-    <t>haha54</t>
-  </si>
-  <si>
-    <t>suzhaoheng2006@163.com</t>
-  </si>
-  <si>
-    <t>02月份绩效</t>
-  </si>
-  <si>
-    <t>考核基数</t>
-  </si>
-  <si>
-    <t>工作时间投入度</t>
-  </si>
-  <si>
-    <t>产出质量</t>
-  </si>
-  <si>
-    <t>按期交付能力</t>
-  </si>
-  <si>
-    <t>加权累计%</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1661,7 @@
   <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2070,12 +2073,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" ht="12" customHeight="1" spans="1:47">
       <c r="A5" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>100</v>
@@ -2209,7 +2212,7 @@
       <c r="AT5" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="AU5" s="12" t="s">
+      <c r="AU5" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2262,7 +2265,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AU4" r:id="rId1" display="408270653@qq.com"/>
-    <hyperlink ref="AU5" r:id="rId2" display="suzhaoheng2006@163.com"/>
+    <hyperlink ref="AU5" r:id="rId2" display="suzhaoheng2006@163.com" tooltip="mailto:suzhaoheng2006@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2275,7 +2278,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2370,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
